--- a/Output/vfsg_undp_clean.xlsx
+++ b/Output/vfsg_undp_clean.xlsx
@@ -2407,7 +2407,7 @@
     <t>Solar / Thermal</t>
   </si>
   <si>
-    <t>FASE</t>
+    <t>FALSE</t>
   </si>
   <si>
     <t>TRUE</t>

--- a/Output/vfsg_undp_clean.xlsx
+++ b/Output/vfsg_undp_clean.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9959" uniqueCount="2948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9959" uniqueCount="2944">
   <si>
     <t>project_id</t>
   </si>
@@ -8893,7 +8893,7 @@
     <t>North Macedonia</t>
   </si>
   <si>
-    <t>Pacific</t>
+    <t>Fiji</t>
   </si>
   <si>
     <t>Panama</t>
@@ -9022,15 +9022,9 @@
     <t>Samoa (&amp; Cook Islands, Niue, Tokelau)</t>
   </si>
   <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
-    <t>Pacific-Fiji</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -9088,13 +9082,7 @@
     <t>Haiti</t>
   </si>
   <si>
-    <t>Trinidad &amp; Tobago (Guyana &amp; Suriname)</t>
-  </si>
-  <si>
     <t>Peru</t>
-  </si>
-  <si>
-    <t>Uruguay (self starter)</t>
   </si>
   <si>
     <t>Dominican Republic</t>
@@ -58774,7 +58762,7 @@
         <v>2895</v>
       </c>
       <c r="B47" t="s">
-        <v>2921</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -58790,7 +58778,7 @@
         <v>2895</v>
       </c>
       <c r="B49" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -58798,7 +58786,7 @@
         <v>2895</v>
       </c>
       <c r="B50" t="s">
-        <v>2923</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -58806,7 +58794,7 @@
         <v>2895</v>
       </c>
       <c r="B51" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -58854,7 +58842,7 @@
         <v>2896</v>
       </c>
       <c r="B57" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -58862,7 +58850,7 @@
         <v>2896</v>
       </c>
       <c r="B58" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -58894,7 +58882,7 @@
         <v>2896</v>
       </c>
       <c r="B62" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -58902,7 +58890,7 @@
         <v>2896</v>
       </c>
       <c r="B63" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -58918,7 +58906,7 @@
         <v>2896</v>
       </c>
       <c r="B65" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -58926,7 +58914,7 @@
         <v>2896</v>
       </c>
       <c r="B66" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -58934,7 +58922,7 @@
         <v>2896</v>
       </c>
       <c r="B67" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -58942,7 +58930,7 @@
         <v>2897</v>
       </c>
       <c r="B68" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -58950,7 +58938,7 @@
         <v>2897</v>
       </c>
       <c r="B69" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -58958,7 +58946,7 @@
         <v>2897</v>
       </c>
       <c r="B70" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -58990,7 +58978,7 @@
         <v>2897</v>
       </c>
       <c r="B74" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -58998,7 +58986,7 @@
         <v>2897</v>
       </c>
       <c r="B75" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -59014,7 +59002,7 @@
         <v>2897</v>
       </c>
       <c r="B77" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -59022,7 +59010,7 @@
         <v>2897</v>
       </c>
       <c r="B78" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -59030,7 +59018,7 @@
         <v>2898</v>
       </c>
       <c r="B79" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -59038,7 +59026,7 @@
         <v>2898</v>
       </c>
       <c r="B80" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -59046,7 +59034,7 @@
         <v>2898</v>
       </c>
       <c r="B81" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -59054,7 +59042,7 @@
         <v>2898</v>
       </c>
       <c r="B82" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -59062,7 +59050,7 @@
         <v>2898</v>
       </c>
       <c r="B83" t="s">
-        <v>2943</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -59070,7 +59058,7 @@
         <v>2898</v>
       </c>
       <c r="B84" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -59086,7 +59074,7 @@
         <v>2898</v>
       </c>
       <c r="B86" t="s">
-        <v>2945</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -59118,7 +59106,7 @@
         <v>2898</v>
       </c>
       <c r="B90" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -59142,7 +59130,7 @@
         <v>2898</v>
       </c>
       <c r="B93" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
     </row>
   </sheetData>

--- a/Output/vfsg_undp_clean.xlsx
+++ b/Output/vfsg_undp_clean.xlsx
@@ -8968,7 +8968,7 @@
     <t>Senegal</t>
   </si>
   <si>
-    <t>Mauritius (&amp; Seychelles)</t>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Benin</t>
@@ -9025,7 +9025,7 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Saudi Arabia (self starter)</t>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Somalia</t>
